--- a/data/Fissure_data.xlsx
+++ b/data/Fissure_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\Fissure_Detection_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC323A69-3569-4405-972B-859D4766F7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA9FE8-1B50-496A-A0B0-7CB6EE4C7675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2247,11 +2247,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
